--- a/data/trans_orig/CANT_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CANT_TABACO-Estudios-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cantidad media de tabaco consumido al día</t>
+          <t>Cantidad media de tabaco consumido al día (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CANT_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CANT_TABACO-Estudios-trans_orig.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,29</t>
+          <t>0,93; 2,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 5,75</t>
+          <t>3,7; 5,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,11</t>
+          <t>0,48; 1,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,89</t>
+          <t>1,15; 1,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,37</t>
+          <t>0,77; 1,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 3,13</t>
+          <t>2,18; 3,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,7</t>
+          <t>2,13; 2,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,75</t>
+          <t>1,61; 3,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 1,94</t>
+          <t>1,29; 1,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,4</t>
+          <t>1,18; 2,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 2,22</t>
+          <t>1,83; 2,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,97</t>
+          <t>1,77; 2,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,0</t>
+          <t>1,12; 2,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,82</t>
+          <t>1,51; 2,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,88</t>
+          <t>0,98; 1,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,65</t>
+          <t>1,0; 1,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,79</t>
+          <t>1,12; 1,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,12</t>
+          <t>1,37; 2,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,27</t>
+          <t>1,84; 2,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,49</t>
+          <t>1,94; 3,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,66</t>
+          <t>1,16; 1,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,99</t>
+          <t>1,21; 1,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 1,88</t>
+          <t>1,57; 1,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 2,64</t>
+          <t>1,82; 2,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_orig/CANT_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CANT_TABACO-Estudios-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,46</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>1,46</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,63</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,88</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,92</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>1,1</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>3,55; 5,39</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 3,73</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,93; 2,29</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,7; 5,63</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,37; 3,73</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>1,19; 1,91</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 1,42</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,48; 1,77</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 1,87</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 1,42</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>2,16; 3,02</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 2,34</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>0,77; 1,63</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 3,1</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 2,34</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,58</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>2,5</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,99</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>1,56</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>2,95</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,41</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>2,04</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,46</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>3,16; 4,02</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 3,16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>2,13; 2,91</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,61; 3,8</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 3,16</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>2,05; 2,6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 2,26</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>1,29; 1,87</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,18; 2,39</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,76; 2,26</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>2,7; 3,22</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 2,61</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>1,83; 2,31</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1,77; 2,99</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 2,61</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,57</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,01</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,27</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>1,4</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1,52; 2,89</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 1,95</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1,12; 2,27</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,51; 2,88</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,21; 1,95</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0,98; 1,6</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 1,26</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,98; 1,67</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,64</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,7; 1,26</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>1,37; 2,11</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 1,48</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>1,12; 1,76</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,37; 2,12</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 1,48</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,31</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>2,14</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,51</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>1,37</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,72</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>1,74</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>2,01</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,98; 3,68</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 2,75</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,84; 2,46</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,94; 3,48</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 2,75</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>1,73; 2,11</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 1,75</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>1,16; 1,58</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,21; 1,98</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,4; 1,75</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>2,41; 2,8</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 2,16</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>1,57; 1,92</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 2,62</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 2,16</t>
         </is>
       </c>
     </row>
